--- a/Version 2/excel/dinamic.xlsx
+++ b/Version 2/excel/dinamic.xlsx
@@ -335,15 +335,15 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2019-11-03</v>
+        <v>2019-11-04</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2019-11-04</v>
+        <v>2019-11-05</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -351,23 +351,23 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2019-11-05</v>
+        <v>2019-11-06</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2019-11-06</v>
+        <v>2019-11-07</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2019-11-07</v>
+        <v>2019-11-08</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -375,23 +375,23 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2019-11-08</v>
+        <v>2019-11-09</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2019-11-09</v>
+        <v>2019-11-10</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2019-11-10</v>
+        <v>2019-11-11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -399,15 +399,15 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2019-11-11</v>
+        <v>2019-11-12</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2019-11-12</v>
+        <v>2019-11-13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -415,15 +415,15 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2019-11-13</v>
+        <v>2019-11-14</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2019-11-14</v>
+        <v>2019-11-15</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -431,15 +431,15 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2019-11-15</v>
+        <v>2019-11-16</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2019-11-16</v>
+        <v>2019-11-17</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -447,31 +447,31 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2019-11-17</v>
+        <v>2019-11-18</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2019-11-18</v>
+        <v>2019-11-19</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2019-11-19</v>
+        <v>2019-11-20</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2019-11-20</v>
+        <v>2019-11-21</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -479,23 +479,23 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2019-11-21</v>
+        <v>2019-11-22</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2019-11-22</v>
+        <v>2019-11-23</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2019-11-23</v>
+        <v>2019-11-24</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2019-11-24</v>
+        <v>2019-11-25</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -511,90 +511,74 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2019-11-25</v>
+        <v>2019-11-26</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2019-11-26</v>
+        <v>2019-11-27</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2019-11-27</v>
+        <v>2019-11-28</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2019-11-28</v>
+        <v>2019-11-29</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2019-11-29</v>
+        <v>2019-11-30</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2019-11-30</v>
+        <v>2019-12-01</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2019-12-01</v>
+        <v>2019-12-02</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2019-12-02</v>
+        <v>2019-12-03</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2019-12-03</v>
+        <v>2019-12-04</v>
       </c>
       <c r="B32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>2019-12-04</v>
-      </c>
-      <c r="B33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>2019-12-05</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
